--- a/Guidance zu Compilerinhalten und Notenfindung.xlsx
+++ b/Guidance zu Compilerinhalten und Notenfindung.xlsx
@@ -541,7 +541,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -725,7 +725,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -790,7 +790,7 @@
       <c r="E3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="15" t="s">
